--- a/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
+++ b/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>540008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>汇丰晋信低碳先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>74.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>002168</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>嘉实智能汽车股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>47.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006132</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家智造优势混合A</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>50.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006133</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家智造优势混合C</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>540008</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信低碳先锋股票</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>005299</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>万家成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.32</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>7.60</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>580006</t>
+          <t>004157</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴新经济混合</t>
+          <t>信诚至诚灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.94</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001415</t>
+          <t>004158</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合A</t>
+          <t>信诚至诚灵活配置混合B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.14</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002168</t>
+          <t>001415</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实智能汽车股票</t>
+          <t>信诚新锐回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -782,15 +892,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>21.14</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>0.72</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004157</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合A</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004158</t>
+          <t>006132</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合B</t>
+          <t>万家智造优势混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005299</t>
+          <t>005300</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合A</t>
+          <t>万家成长优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>93.83</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>3.70</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005300</t>
+          <t>005821</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合C</t>
+          <t>万家新机遇龙头企业灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006234</t>
+          <t>580006</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合C</t>
+          <t>东吴新经济混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>006234</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>万家汽车新趋势混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -996,25 +1186,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005821</t>
+          <t>006133</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
+          <t>万家智造优势混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>82.63</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1029,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1250,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>002083</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>新华鑫动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.76</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005535</t>
+          <t>002084</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰信竞争优选灵活配置混合</t>
+          <t>新华鑫动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>290006</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信蓝筹精选混合</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1192,15 +1442,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>90.04</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>6.05</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002083</t>
+          <t>002272</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新华鑫动力灵活配置混合A</t>
+          <t>新华科技创新主题灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002084</t>
+          <t>005535</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新华鑫动力灵活配置混合C</t>
+          <t>泰信竞争优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002272</t>
+          <t>290006</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>新华科技创新主题灵活配置混合</t>
+          <t>泰信蓝筹精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>87.21</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1304,15 +1594,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>30.98</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.01</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1332,15 +1632,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>30.98</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.01</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
+++ b/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7460</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4459</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003754</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003755</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
+++ b/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2322,4 +2323,2944 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4872</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2921</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7455</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6339</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3956</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0401</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0243</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9886</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9843</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7283</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6207</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5572</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5526</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5349</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5115</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4916</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4498</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4232</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2760</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>63.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
+++ b/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5263,4 +5264,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
+++ b/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5272,7 +5273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5283,17 +5284,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5303,14 +5324,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5319,14 +5362,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.79</v>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7179</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5335,14 +5400,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.66</v>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0326</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5351,13 +5438,2693 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5589</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5364</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3923</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1992</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1200</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1150</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9824</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8119</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7519</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6708</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6437</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5398</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5305</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5224</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4916</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4819</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3984</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3560</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2353</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.109999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
+++ b/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8023,7 +8024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8034,17 +8035,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8054,14 +8075,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.39</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.6493</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -8070,14 +8113,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>76</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8086,14 +8151,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.79</v>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3733</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8102,14 +8189,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.66</v>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0820</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -8118,13 +8227,6124 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0103</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6276</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5507</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4879</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>74.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3843</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0648</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9960</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>57.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9802</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6900</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6763</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6243</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5689</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1377</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1362</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0799</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0487</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0478</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0114</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0109</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9889</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9773</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9441</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9352</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9206</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9099</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6257</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5537</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5194</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4936</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4603</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4160</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4119</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4112</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3874</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3699</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2465</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159761</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>162</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71.54000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>76</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.109999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
+++ b/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14227,7 +14228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14238,17 +14239,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14258,14 +14279,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>162</v>
-      </c>
-      <c r="D2" t="n">
-        <v>71.54000000000001</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>234.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.0216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -14274,14 +14317,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.39</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -14290,14 +14355,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>76</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33</v>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.9223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -14306,14 +14393,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.79</v>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4978</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -14322,14 +14431,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.66</v>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.3191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -14338,13 +14469,9317 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6340</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4797</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.2173</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>424.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6300</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>71.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5841</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4880</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2044</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9040</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银生态环境股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9040</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8896</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8323</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7676</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7660</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5229</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4707</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4653</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4524</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4482</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2398</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1456</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1201</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0758</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9645</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9329</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8511</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8287</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7277</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6818</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6564</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6174</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5958</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5836</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5283</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5067</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5011</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4618</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4393</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4160</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3996</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013137</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159761</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003115</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>光大保德信诚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>73.41</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003116</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>光大保德信诚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011801</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>73.41</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>011802</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>013892</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>247</v>
+      </c>
+      <c r="D2" t="n">
+        <v>102.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>162</v>
+      </c>
+      <c r="D3" t="n">
+        <v>71.54000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.109999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
+++ b/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>247</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>102.38</v>
+        <v>43.69</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="D3" t="n">
-        <v>71.54000000000001</v>
+        <v>102.38</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
-        <v>30.39</v>
+        <v>71.54000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>30.39</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>2.79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>3.66</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.109999999999999</v>
       </c>
     </row>
@@ -600,6 +617,3630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1953</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2821</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1830</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3134</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8808</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8076</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6606</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5181</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银生态环境股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4832</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1947</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1371</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1080</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7294</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7021</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6708</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6510</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5983</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014131</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013872</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商能源转型混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159761</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013877</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015398</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013871</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商能源转型混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014151</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012675</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015002</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银生态环境股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014152</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014132</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013876</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012676</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10017,7 +13658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16220,7 +19861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18970,7 +22611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21910,7 +25551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22574,7 +26215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23010,7 +26651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
+++ b/数据整理/stocks/A股/创业板/300769-德方纳米.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>43.69</v>
+        <v>29.45</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>247</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>102.38</v>
+        <v>43.69</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="D4" t="n">
-        <v>71.54000000000001</v>
+        <v>102.38</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="D5" t="n">
-        <v>30.39</v>
+        <v>71.54000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>30.39</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
-        <v>2.79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>3.66</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>19</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.109999999999999</v>
       </c>
     </row>
@@ -616,7 +633,3763 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8794</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5555</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2555</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银生态环境股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2086</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0661</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0060</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8067</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6170</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5470</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5379</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4783</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015630</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信乐融一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014131</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159761</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013877</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015631</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信乐融一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012675</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国新国证融泽6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014132</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013876</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015002</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银生态环境股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015828</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>永赢新能源智选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011771</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>32.85</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012676</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国新国证融泽6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>015829</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>永赢新能源智选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011772</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>32.85</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4240,7 +8013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13658,7 +17431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19861,7 +23634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22611,7 +26384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25551,7 +29324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26215,7 +29988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26649,782 +30422,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>540008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信低碳先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>74.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.8802</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002168</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实智能汽车股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>47.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.3681</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001643</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信智造先锋股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>50.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4353</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519918</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏兴和混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4819</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001644</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇丰晋信智造先锋股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2887</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1021</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000689</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0973</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004157</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信诚至诚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.31</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004158</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信诚至诚灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001415</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>信诚新锐回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>21.14</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0623</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002046</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>信诚新锐回报灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21.14</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0623</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006233</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0540</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0455</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0337</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005821</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.63</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519183</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>万家双引擎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>580006</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东吴新经济混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>85.94</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006234</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>